--- a/Final_Project/QoS_Queue/Packet_Format.xlsx
+++ b/Final_Project/QoS_Queue/Packet_Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clint/Documents/ee533/Final_Project/QoS_Queue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StepF\Documents\GitHub\ee533\Final_Project\QoS_Queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2567684-BDAD-8341-90CB-257C7AEC6064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF707753-8CB7-4D6E-A4D7-E87CD85D84CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,13 +258,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +273,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,93 +552,93 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,286 +919,286 @@
   <dimension ref="B2:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
       <c r="L3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
       <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="12">
         <v>0</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
       <c r="L6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="L7" s="24" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="L8" s="13" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="L8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="L9" s="17" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="L9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="L10" s="17" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="L10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="L11" s="24" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="L11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25" t="s">
+      <c r="O11" s="21"/>
+      <c r="P11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
-    </row>
-    <row r="12" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
@@ -1209,186 +1209,186 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L13" s="17" t="s">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="L13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18" t="s">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L14" s="17" t="s">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="L14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L15" s="24" t="s">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="L15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L16" s="13" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="L16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L17" s="17" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L18" s="17" t="s">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="24" t="s">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L20" s="13" t="s">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="17" t="s">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L22" s="17" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="24" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
-    </row>
-    <row r="24" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="13" t="s">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L25" s="17">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L25" s="11">
         <v>0</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="19"/>
-    </row>
-    <row r="26" spans="12:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="12:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L26" s="14" t="s">
         <v>36</v>
       </c>
@@ -1400,684 +1400,684 @@
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="49" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L49" s="35" t="s">
+    <row r="49" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L49" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="32"/>
-    </row>
-    <row r="50" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L50" s="34" t="s">
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="35"/>
+    </row>
+    <row r="50" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L50" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="30"/>
-    </row>
-    <row r="51" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L51" s="33" t="s">
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="31"/>
+    </row>
+    <row r="51" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L51" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="28"/>
-    </row>
-    <row r="52" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L52" s="33" t="s">
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L52" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="28"/>
-    </row>
-    <row r="53" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L53" s="35" t="s">
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L53" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="32"/>
-    </row>
-    <row r="54" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L54" s="34" t="s">
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="35"/>
+    </row>
+    <row r="54" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="30"/>
-    </row>
-    <row r="55" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L55" s="33">
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="31"/>
+    </row>
+    <row r="55" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L55" s="23">
         <v>0</v>
       </c>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="28"/>
-    </row>
-    <row r="56" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L56" s="33" t="s">
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="25"/>
+    </row>
+    <row r="56" spans="12:19" x14ac:dyDescent="0.4">
+      <c r="L56" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
-    </row>
-    <row r="64" spans="12:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="25"/>
+    </row>
+    <row r="64" spans="12:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22" t="s">
+      <c r="E65" s="32"/>
+      <c r="F65" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22" t="s">
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
       <c r="N65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O65" s="36" t="s">
+      <c r="O65" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="38"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P65" s="27"/>
+      <c r="Q65" s="28"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11" t="s">
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="34" t="s">
+      <c r="O66" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="30"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P66" s="30"/>
+      <c r="Q66" s="31"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="12">
         <v>0</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18" t="s">
+      <c r="E67" s="12"/>
+      <c r="F67" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
       <c r="N67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="23">
         <v>0</v>
       </c>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="28"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P67" s="24"/>
+      <c r="Q67" s="25"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18" t="s">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
       <c r="N68" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O68" s="33" t="s">
+      <c r="O68" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="28"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="24" t="s">
+      <c r="P68" s="24"/>
+      <c r="Q68" s="25"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B69" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25" t="s">
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="26"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="13" t="s">
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="22"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B70" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="E70" s="18"/>
+      <c r="F70" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="17" t="s">
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B71" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18" t="s">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18" t="s">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="19"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="17" t="s">
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18" t="s">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18" t="s">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="24" t="s">
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B73" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="26"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="13" t="s">
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="s">
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="12"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="17" t="s">
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B75" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12">
         <v>0</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="17" t="s">
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B76" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="19"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="24" t="s">
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B77" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="26"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="13" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="22"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B78" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="12"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="17" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B79" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="19"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="17" t="s">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B80" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="19"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="17" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B81" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="19"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="17" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B82" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="19"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="17" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B83" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="19"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="17" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="19"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="17" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B85" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="19"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="17" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B86" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="19"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="17" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B87" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="19"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="17" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B88" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="19"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="17" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B89" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="19"/>
-    </row>
-    <row r="90" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B90" s="14" t="s">
         <v>51</v>
       </c>
@@ -2099,6 +2099,102 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="L26:S26"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L56:S56"/>
+    <mergeCell ref="L55:S55"/>
+    <mergeCell ref="L54:S54"/>
+    <mergeCell ref="L53:S53"/>
+    <mergeCell ref="L52:S52"/>
+    <mergeCell ref="L51:S51"/>
+    <mergeCell ref="L50:S50"/>
+    <mergeCell ref="L49:S49"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:Q72"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="J73:Q73"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:Q70"/>
     <mergeCell ref="B89:Q89"/>
     <mergeCell ref="B90:Q90"/>
     <mergeCell ref="B11:I11"/>
@@ -2123,102 +2219,6 @@
     <mergeCell ref="B79:Q79"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:Q72"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="J73:Q73"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:Q70"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="L25:S25"/>
-    <mergeCell ref="L26:S26"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="L56:S56"/>
-    <mergeCell ref="L55:S55"/>
-    <mergeCell ref="L54:S54"/>
-    <mergeCell ref="L53:S53"/>
-    <mergeCell ref="L52:S52"/>
-    <mergeCell ref="L51:S51"/>
-    <mergeCell ref="L50:S50"/>
-    <mergeCell ref="L49:S49"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L20:S20"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
